--- a/biology/Botanique/Euphorbia_trigona/Euphorbia_trigona.xlsx
+++ b/biology/Botanique/Euphorbia_trigona/Euphorbia_trigona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphorbia trigona est une espèce de plantes à fleurs du genre Euphorbia et de la famille des Euphorbiaceae originaire du sud-est de l'Afrique (rivière Graboon)[2]. On peut la trouver depuis le Gabon jusqu’au Malawi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphorbia trigona est une espèce de plantes à fleurs du genre Euphorbia et de la famille des Euphorbiaceae originaire du sud-est de l'Afrique (rivière Graboon). On peut la trouver depuis le Gabon jusqu’au Malawi.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante succulente à tiges dressées divisées en segments de 15-25 cm séparés par des étranglements, panachées de vert (avec le temps elles acquièrent une forme touffue) entre 4 et 6 cm de diamètre, 3 ou 4 côtes pointues et prononcées, aux bords ondulés et déchiquetés. Épines spatulées et acuminées de 2 à 4 mm, brun rougeâtre. Feuilles de 3 à 5 cm de long, spatulées et terminées par un mucron très court. Elles restent généralement longtemps sur la plante si la température et l'irrigation sont adéquates.
 </t>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'elle se cultive en plante ornementale, elle requiert un substrat plus riche que la plupart des cactus ou succulentes, en ajoutant 10 % de tourbe fertilisée ou  avec un paillis de feuilles. Elle tolère une température de  −3 °C, en dessous de cela, elle perdra probablement ses feuilles, avec des risques de brulure sur certaines tiges . L'éclairage le plus approprié est une ombre légère dans les climats très chauds. Elle est multipliée par des boutures de tige ou par semis. Comme les autres espèces de ce genre à feuilles, Euphorbia trigona est souvent attaquée par les Aleurodes.
 </t>
@@ -573,14 +589,16 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Euphorbia trigona a été décrite par Philip Miller et publié en The Gardeners Dictionary:... huitième Edition N° 3. en 1768[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphorbia trigona a été décrite par Philip Miller et publié en The Gardeners Dictionary:... huitième Edition N° 3. en 1768.
 Étymologie
-Euphorbia : Nom générique dérivé de Euphorbus qui était le médecin du  roi grec Juba II de Mauritanie (52  av. J.-C. - 23 ap. JC ) . En son honneur – ou en allusion à son gros ventre –  puisqu'il usait d'un médicament à base d'Euphorbia resinifera. En 1753, Linné a assigné ce nom à tout le genre [4].
-trigona : Épithète Latin qui signifie « avec trois angles »[5].
+Euphorbia : Nom générique dérivé de Euphorbus qui était le médecin du  roi grec Juba II de Mauritanie (52  av. J.-C. - 23 ap. JC ) . En son honneur – ou en allusion à son gros ventre –  puisqu'il usait d'un médicament à base d'Euphorbia resinifera. En 1753, Linné a assigné ce nom à tout le genre .
+trigona : Épithète Latin qui signifie « avec trois angles ».
 Synonyme
-Euphorbia hermentiana Lem[6].</t>
+Euphorbia hermentiana Lem.</t>
         </is>
       </c>
     </row>
